--- a/core/src/test/resources/testdata_2.xlsx
+++ b/core/src/test/resources/testdata_2.xlsx
@@ -9,8 +9,8 @@
   </bookViews>
   <sheets>
     <sheet name="table_1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="table_2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="not_data" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="table_2-formula" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="table_2-margin" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t xml:space="preserve">a</t>
   </si>
@@ -57,7 +57,10 @@
     <t xml:space="preserve">乙</t>
   </si>
   <si>
-    <t xml:space="preserve">This sheet is not a data sheet.</t>
+    <t xml:space="preserve">b1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b2</t>
   </si>
 </sst>
 </file>
@@ -194,7 +197,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.12"/>
   </cols>
@@ -304,7 +307,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -316,7 +319,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <f aca="false">ROW()-1</f>
+        <f aca="false">ROW()-ROW(A$1)</f>
         <v>1</v>
       </c>
       <c r="B2" s="0" t="str">
@@ -326,7 +329,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <f aca="false">ROW()-1</f>
+        <f aca="false">ROW()-ROW(A$1)</f>
         <v>2</v>
       </c>
       <c r="B3" s="0" t="str">
@@ -350,17 +353,39 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="B3:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1021" style="0" width="11.52"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/core/src/test/resources/testdata_2.xlsx
+++ b/core/src/test/resources/testdata_2.xlsx
@@ -9,8 +9,10 @@
   </bookViews>
   <sheets>
     <sheet name="table_1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="table_2-formula" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="table_2-margin" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="table_2_formula" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="table_2_margin" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="table_2_error" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="table_2_empty" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t xml:space="preserve">a</t>
   </si>
@@ -197,7 +199,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.12"/>
   </cols>
@@ -307,7 +309,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -359,7 +361,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1021" style="0" width="11.52"/>
   </cols>
@@ -397,4 +399,68 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B2" s="0" t="e">
+        <f aca="false">NA()</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>